--- a/仙人/config_dev/AtkMethods.xlsx
+++ b/仙人/config_dev/AtkMethods.xlsx
@@ -101,10 +101,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -115,6 +115,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -123,7 +132,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,7 +222,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,6 +231,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,100 +252,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,187 +268,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,78 +473,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,6 +502,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -582,10 +582,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,141 +594,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1085,7 +1082,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="6"/>
@@ -1114,7 +1111,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1129,7 +1126,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E2" s="1">
         <v>15</v>
@@ -1137,8 +1134,8 @@
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="2">
-        <v>1</v>
+      <c r="G2" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1152,7 +1149,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="E3" s="1">
         <v>12</v>
@@ -1160,8 +1157,8 @@
       <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="2">
-        <v>2</v>
+      <c r="G3" s="1">
+        <v>0.7</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1175,7 +1172,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="1">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="E4" s="1">
         <v>10</v>
@@ -1183,8 +1180,8 @@
       <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="2">
-        <v>2</v>
+      <c r="G4" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1198,7 +1195,7 @@
         <v>21</v>
       </c>
       <c r="D5" s="1">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="E5" s="1">
         <v>15</v>
@@ -1206,8 +1203,8 @@
       <c r="F5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="2">
-        <v>3</v>
+      <c r="G5" s="1">
+        <v>0.7</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1221,7 +1218,7 @@
         <v>24</v>
       </c>
       <c r="D6" s="1">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="E6" s="1">
         <v>10</v>
@@ -1229,8 +1226,8 @@
       <c r="F6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="2">
-        <v>5</v>
+      <c r="G6" s="1">
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>

--- a/仙人/config_dev/AtkMethods.xlsx
+++ b/仙人/config_dev/AtkMethods.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>sID</t>
   </si>
@@ -39,6 +39,9 @@
     <t>sUpAddSpeed</t>
   </si>
   <si>
+    <t>sAtkSkills</t>
+  </si>
+  <si>
     <t>a001</t>
   </si>
   <si>
@@ -51,6 +54,9 @@
     <t>C</t>
   </si>
   <si>
+    <t>atk001</t>
+  </si>
+  <si>
     <t>a002</t>
   </si>
   <si>
@@ -61,6 +67,9 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>atk002|atk003</t>
   </si>
   <si>
     <t>a003</t>
@@ -102,9 +111,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -116,6 +125,111 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -123,75 +237,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,55 +252,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,61 +277,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,121 +457,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,28 +486,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,21 +506,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,7 +529,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,21 +553,32 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -582,10 +591,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,133 +603,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1079,20 +1088,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
     <col min="3" max="3" width="18.3333333333333" customWidth="1"/>
     <col min="4" max="4" width="16.3333333333333" customWidth="1"/>
     <col min="5" max="5" width="15.2222222222222" customWidth="1"/>
+    <col min="7" max="7" width="13.5555555555556" customWidth="1"/>
+    <col min="8" max="8" width="28.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1114,16 +1125,19 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1">
         <v>0.2</v>
@@ -1132,21 +1146,24 @@
         <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1">
         <v>0.5</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1">
         <v>0.2</v>
@@ -1155,21 +1172,24 @@
         <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G3" s="1">
         <v>0.7</v>
       </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1">
         <v>0.3</v>
@@ -1178,21 +1198,22 @@
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G4" s="1">
         <v>0.5</v>
       </c>
+      <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1">
         <v>0.4</v>
@@ -1201,21 +1222,22 @@
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G5" s="1">
         <v>0.7</v>
       </c>
+      <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1">
         <v>0.5</v>
@@ -1224,11 +1246,12 @@
         <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G6" s="1">
         <v>0.9</v>
       </c>
+      <c r="H6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/仙人/config_dev/AtkMethods.xlsx
+++ b/仙人/config_dev/AtkMethods.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>sID</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
   <si>
     <t>a004</t>
@@ -124,6 +127,102 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -132,22 +231,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,59 +257,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,53 +270,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -277,31 +280,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,151 +460,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,6 +489,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -504,8 +518,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,8 +542,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,41 +586,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -591,10 +594,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -603,7 +606,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -612,124 +615,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1091,7 +1094,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="7"/>
@@ -1203,17 +1206,19 @@
       <c r="G4" s="1">
         <v>0.5</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1">
         <v>0.4</v>
@@ -1227,17 +1232,19 @@
       <c r="G5" s="1">
         <v>0.7</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1">
         <v>0.5</v>
@@ -1246,12 +1253,14 @@
         <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G6" s="1">
         <v>0.9</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
